--- a/hyve-qa-auto/src/com/hyve/testData/testData.xlsx
+++ b/hyve-qa-auto/src/com/hyve/testData/testData.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17426"/>
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
   <si>
     <t>Test Case Name</t>
   </si>
@@ -44,16 +44,16 @@
     <t>anuj.singh@hyve.buzz</t>
   </si>
   <si>
-    <t>1234567</t>
-  </si>
-  <si>
     <t>Pass</t>
+  </si>
+  <si>
+    <t>123456</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -193,6 +193,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -228,6 +245,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -383,7 +417,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -415,10 +449,10 @@
         <v>5</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
         <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/hyve-qa-auto/src/com/hyve/testData/testData.xlsx
+++ b/hyve-qa-auto/src/com/hyve/testData/testData.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="8">
   <si>
     <t>Test Case Name</t>
   </si>
@@ -47,7 +47,7 @@
     <t>Pass</t>
   </si>
   <si>
-    <t>123456</t>
+    <t>1234567</t>
   </si>
 </sst>
 </file>
@@ -417,7 +417,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/hyve-qa-auto/src/com/hyve/testData/testData.xlsx
+++ b/hyve-qa-auto/src/com/hyve/testData/testData.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="8">
   <si>
     <t>Test Case Name</t>
   </si>

--- a/hyve-qa-auto/src/com/hyve/testData/testData.xlsx
+++ b/hyve-qa-auto/src/com/hyve/testData/testData.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17426"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17766"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Automation\git-codebase\hyve-qa-automation\hyve-qa-auto\src\com\hyve\testData\"/>
     </mc:Choice>
@@ -14,9 +14,9 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="152511"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Test Case Name</t>
   </si>
@@ -35,26 +35,31 @@
     <t>Password</t>
   </si>
   <si>
-    <t>Result</t>
-  </si>
-  <si>
     <t>Login with Valid Input</t>
   </si>
   <si>
     <t>anuj.singh@hyve.buzz</t>
   </si>
   <si>
+    <t>1234567</t>
+  </si>
+  <si>
+    <t>Login Result</t>
+  </si>
+  <si>
+    <t>Storm Price</t>
+  </si>
+  <si>
     <t>Pass</t>
   </si>
   <si>
-    <t>1234567</t>
+    <t>5,100.00</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -414,20 +419,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="24.5703125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="21.140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="11.85546875" collapsed="true"/>
+    <col min="1" max="1" width="24.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="21.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -438,21 +445,27 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>7</v>
-      </c>
       <c r="D2" t="s">
-        <v>6</v>
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
